--- a/biology/Médecine/Transfert_d'embryon/Transfert_d'embryon.xlsx
+++ b/biology/Médecine/Transfert_d'embryon/Transfert_d'embryon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transfert_d%27embryon</t>
+          <t>Transfert_d'embryon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le transfert d'embryon  ou transplantation embryonnaire  est une technique de procréation assistée consistant à transplanter un embryon issu d'une femelle dite « donneuse » dans l'utérus d'une femelle dite « receveuse ». En élevage, cette technique permet notamment d'accélérer la diffusion du progrès génétique, une femelle à très bon potentiel génétique pouvant ainsi avoir plusieurs veau par an, ce qui n'est pas possible naturellement[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le transfert d'embryon  ou transplantation embryonnaire  est une technique de procréation assistée consistant à transplanter un embryon issu d'une femelle dite « donneuse » dans l'utérus d'une femelle dite « receveuse ». En élevage, cette technique permet notamment d'accélérer la diffusion du progrès génétique, une femelle à très bon potentiel génétique pouvant ainsi avoir plusieurs veau par an, ce qui n'est pas possible naturellement.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transfert_d%27embryon</t>
+          <t>Transfert_d'embryon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transfert_d%27embryon</t>
+          <t>Transfert_d'embryon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,22 +551,128 @@
           <t>Transfert d'embryon chez les animaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les animaux le transfert d’embryon est une méthode artificielle de reproduction consistant à placer un embryon dans l’utérus d’une femelle dite receveuse ou porteuse[2].
-Technique de la transplantation embryonnaire
-La transplantation embryonnaire se réalise en 5 étapes[3]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les animaux le transfert d’embryon est une méthode artificielle de reproduction consistant à placer un embryon dans l’utérus d’une femelle dite receveuse ou porteuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Transfert_d'embryon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transfert_d%27embryon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Transfert d'embryon chez les animaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Technique de la transplantation embryonnaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La transplantation embryonnaire se réalise en 5 étapes:
 La super-ovulation
 Afin d'avoir le maximum d'ovule, les animaux subiront pendant 4 jours 2 injections d'hormone gonadotropes.
 La collecte des embryons
 Cette opération dure 30 minutes et se réalise 7 jours après l'insémination.
 L'appréciation de la qualité des embryons
 Lavage et conservation des embryons
-La mise en place de l'embryon
-Intérêt de la transplantation
-La transplantation embryonnaire permet d'utiliser le bon potentiel génétique des femelles pour en multiplier la descendance. Ceci permet une amélioration du troupeau rapide et efficace car les femelles avec un faible potentiel portent le veau des meilleures femelles. De plus les embryons des meilleures femelles peuvent également être commercialisés et donc devenir une source de revenu complémentaire sur un élevage[4].
-Chez les chevaux
-Chez les chevaux, cette méthode est essentiellement utilisée pour les juments de compétition. Elles peuvent ainsi transmettre une descendance en continuant leur carrière sportive ou alors si elles sont trop âgées ou en mauvaise santé[5]. Le transfert d'embryon permet aussi d'augmenter le nombre normal de poulains par jument[5].
+La mise en place de l'embryon</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Transfert_d'embryon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transfert_d%27embryon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Transfert d'embryon chez les animaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Intérêt de la transplantation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La transplantation embryonnaire permet d'utiliser le bon potentiel génétique des femelles pour en multiplier la descendance. Ceci permet une amélioration du troupeau rapide et efficace car les femelles avec un faible potentiel portent le veau des meilleures femelles. De plus les embryons des meilleures femelles peuvent également être commercialisés et donc devenir une source de revenu complémentaire sur un élevage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Transfert_d'embryon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Transfert_d%27embryon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Transfert d'embryon chez les animaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chez les chevaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les chevaux, cette méthode est essentiellement utilisée pour les juments de compétition. Elles peuvent ainsi transmettre une descendance en continuant leur carrière sportive ou alors si elles sont trop âgées ou en mauvaise santé. Le transfert d'embryon permet aussi d'augmenter le nombre normal de poulains par jument.
 </t>
         </is>
       </c>
